--- a/src/test/resources/TestDriver/TestIFRS9/ActivityDataD2.xlsx
+++ b/src/test/resources/TestDriver/TestIFRS9/ActivityDataD2.xlsx
@@ -5,19 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\IFRS9_Collateral\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\IFRS9_Collateral\TestIFRS9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE74CFA-F7B2-48B8-880D-E59BB8470B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3159475-7CD2-4F4B-AA18-AB3D7E9E26BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InstrumentAttribute" sheetId="1" r:id="rId1"/>
-    <sheet name="xxRiskLevel" sheetId="9" r:id="rId2"/>
-    <sheet name="xxCollateralRecovery" sheetId="10" r:id="rId3"/>
-    <sheet name="GLRule" sheetId="7" state="hidden" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="8" state="hidden" r:id="rId5"/>
+    <sheet name="GLRule" sheetId="7" state="hidden" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="8" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="64">
   <si>
     <t>PostingDate</t>
   </si>
@@ -232,49 +230,13 @@
   </si>
   <si>
     <t>L007</t>
-  </si>
-  <si>
-    <t>ExtimationDate</t>
-  </si>
-  <si>
-    <t>RiskLevel</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>AnnualPD</t>
-  </si>
-  <si>
-    <t>Risk Level 1</t>
-  </si>
-  <si>
-    <t>Risk Level 2</t>
-  </si>
-  <si>
-    <t>Risk Level 3</t>
-  </si>
-  <si>
-    <t>Risk Level 4</t>
-  </si>
-  <si>
-    <t>EstimationDate</t>
-  </si>
-  <si>
-    <t>CollateralHaircut</t>
-  </si>
-  <si>
-    <t>CollateralRecoveryFees</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-  </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,14 +258,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -367,7 +321,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -377,27 +331,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -666,7 +603,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1047,145 +984,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C61C5CAC-00C9-479F-B5FB-4061C84B054D}">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
-        <v>45930</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="17">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
-        <v>45930</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="17">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
-        <v>45930</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="17">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
-        <v>45930</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="17">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{455B8AF9-9D26-4210-AA09-1E92C9F0FF1E}">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
-        <v>45930</v>
-      </c>
-      <c r="B2" s="19">
-        <v>0.3</v>
-      </c>
-      <c r="C2" s="19">
-        <v>0.05</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -1493,7 +1291,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:O25"/>
   <sheetViews>
